--- a/import/list_dh.xlsx
+++ b/import/list_dh.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\L A P T R I N H V I EN WEBSITE\Cd2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\L A P T R I N H V I EN WEBSITE\Cd2\nckh_ng\import\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA5F8E1A-E596-4DE2-855A-19F5039DFAAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4735F66-99D6-4F32-8AC1-162016BECD53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -523,12 +523,6 @@
     <t>0561449364</t>
   </si>
   <si>
-    <t>huynh.thuy.quang.01@gmail.com</t>
-  </si>
-  <si>
-    <t>huynh.phuong.trung.02@gmail.com</t>
-  </si>
-  <si>
     <t>do.anh.thuy.03@gmail.com</t>
   </si>
   <si>
@@ -641,13 +635,19 @@
   </si>
   <si>
     <t>ly.ngoc.nam.40@gmail.com</t>
+  </si>
+  <si>
+    <t>tranvietgiang25@gmail.com</t>
+  </si>
+  <si>
+    <t>phamca18@gmail.com</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -659,6 +659,14 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -702,10 +710,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -714,8 +723,10 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1021,7 +1032,7 @@
   <dimension ref="A1:F41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J4" sqref="J4"/>
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1070,8 +1081,8 @@
       <c r="E2" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="F2" s="3" t="s">
-        <v>167</v>
+      <c r="F2" s="4" t="s">
+        <v>205</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
@@ -1090,8 +1101,8 @@
       <c r="E3" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="F3" s="3" t="s">
-        <v>168</v>
+      <c r="F3" s="4" t="s">
+        <v>206</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
@@ -1111,7 +1122,7 @@
         <v>129</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
@@ -1131,7 +1142,7 @@
         <v>130</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
@@ -1151,7 +1162,7 @@
         <v>131</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
@@ -1171,7 +1182,7 @@
         <v>132</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
@@ -1191,7 +1202,7 @@
         <v>133</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
@@ -1211,7 +1222,7 @@
         <v>134</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
@@ -1231,7 +1242,7 @@
         <v>135</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
@@ -1251,7 +1262,7 @@
         <v>136</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
@@ -1271,7 +1282,7 @@
         <v>137</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
@@ -1291,7 +1302,7 @@
         <v>138</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
@@ -1311,7 +1322,7 @@
         <v>139</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
@@ -1331,7 +1342,7 @@
         <v>140</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
@@ -1351,7 +1362,7 @@
         <v>141</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
@@ -1371,7 +1382,7 @@
         <v>142</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
@@ -1391,7 +1402,7 @@
         <v>143</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
@@ -1411,7 +1422,7 @@
         <v>144</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
@@ -1431,7 +1442,7 @@
         <v>145</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
@@ -1451,7 +1462,7 @@
         <v>146</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
@@ -1471,7 +1482,7 @@
         <v>147</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
@@ -1491,7 +1502,7 @@
         <v>148</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
@@ -1511,7 +1522,7 @@
         <v>149</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
@@ -1531,7 +1542,7 @@
         <v>150</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
@@ -1551,7 +1562,7 @@
         <v>151</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
@@ -1571,7 +1582,7 @@
         <v>152</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
@@ -1591,7 +1602,7 @@
         <v>153</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.3">
@@ -1611,7 +1622,7 @@
         <v>154</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.3">
@@ -1631,7 +1642,7 @@
         <v>155</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.3">
@@ -1651,7 +1662,7 @@
         <v>156</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.3">
@@ -1671,7 +1682,7 @@
         <v>157</v>
       </c>
       <c r="F32" s="3" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.3">
@@ -1691,7 +1702,7 @@
         <v>158</v>
       </c>
       <c r="F33" s="3" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.3">
@@ -1711,7 +1722,7 @@
         <v>159</v>
       </c>
       <c r="F34" s="3" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.3">
@@ -1731,7 +1742,7 @@
         <v>160</v>
       </c>
       <c r="F35" s="3" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.3">
@@ -1751,7 +1762,7 @@
         <v>161</v>
       </c>
       <c r="F36" s="3" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.3">
@@ -1771,7 +1782,7 @@
         <v>162</v>
       </c>
       <c r="F37" s="3" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.3">
@@ -1791,7 +1802,7 @@
         <v>163</v>
       </c>
       <c r="F38" s="3" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.3">
@@ -1811,7 +1822,7 @@
         <v>164</v>
       </c>
       <c r="F39" s="3" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.3">
@@ -1831,7 +1842,7 @@
         <v>165</v>
       </c>
       <c r="F40" s="3" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.3">
@@ -1851,10 +1862,14 @@
         <v>166</v>
       </c>
       <c r="F41" s="3" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="F2" r:id="rId1" xr:uid="{5E1A647F-EBAF-4196-B1E7-D2DE004D5BC0}"/>
+    <hyperlink ref="F3" r:id="rId2" xr:uid="{167635D6-974D-4C8F-969C-3132E70DAFE8}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>